--- a/data/financial_statements/soci/GS.xlsx
+++ b/data/financial_statements/soci/GS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,1473 +590,1503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>10593000000</v>
+      </c>
+      <c r="C2">
         <v>11975000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11864000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12933000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12639000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13608000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15388000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>17704000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>11741000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10781000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>13295000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8743000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>9955000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>8323000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9461000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>8807000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8080000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>8820000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>9636000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>10080000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>8491000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>8326000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7887000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>8026000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>8352000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>8168000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>7932000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>6338000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>7273000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6861000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>9069000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>10617000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>7688000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>8387000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>9125000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>9328000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8782000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>6722000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>8612000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>10090000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>-0.1619</v>
+      </c>
+      <c r="C3">
         <v>-0.12</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.229</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.2695</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0765</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2622</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1574</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.0249</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1794</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2953</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.4052</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0073</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.2321</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.0563</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.0182</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.1263</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.0484</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0593</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.2218</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.2559</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0166</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0193</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0057</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.2663</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.1484</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1905</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.1254</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.403</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.054</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.1819</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0061</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.1382</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.1246</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.2477</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0596</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0755</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0492</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.1951</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.2995</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0142</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
         <v>1086000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>911000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>945000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>975000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>814000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>853000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>823000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>762000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>830000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>714000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>812000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>844000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>732000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>711000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>741000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>692000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>894000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>613000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>625000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>691000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>626000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>665000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>647000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>638000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>669000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>624000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>613000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>595000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>594000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>573000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>613000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>561000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>10593000000</v>
+      </c>
+      <c r="C5">
         <v>11975000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>11864000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>12933000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>12639000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>13608000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>15388000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>17704000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11741000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10781000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>13295000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8743000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>9955000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>7470000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>8638000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>8045000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>8080000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>8106000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>8824000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>9236000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>7759000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>7615000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>7146000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>7334000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>7458000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>7555000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>7307000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>5647000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>6647000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>6196000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>8422000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>9979000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>7019000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>7763000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>8512000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>8733000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>8188000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>6149000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>7999000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>9529000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>216000000</v>
+      </c>
+      <c r="C6">
         <v>199000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>235000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>162000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>193000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>165000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>115000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>80000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>89000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>70000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>89000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>153000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>200000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>169000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>186000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>184000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>208000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>167000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>183000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>182000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>175000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>138000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>141000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>134000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>131000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>92000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>112000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>122000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>148000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>123000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>147000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>139000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>141000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>129000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>141000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>138000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>143000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>117000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>140000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>141000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>5001000000</v>
+      </c>
+      <c r="C7">
         <v>4785000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4888000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5195000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4441000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4236000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6219000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7025000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3424000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3990000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5367000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4141000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4038000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3616000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4143000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>4068000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2651000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3782000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>4146000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>4795000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2881000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3796000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>3876000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3895000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3035000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3881000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>3948000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>3262000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2713000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2986000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>4448000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>5072000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2604000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>3423000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>4539000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>4633000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2854000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3000000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4313000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>4991000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1530000000</v>
+      </c>
+      <c r="C8">
         <v>3756000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3544000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4656000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5025000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6842000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6840000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>8337000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5541000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4299000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1291000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1348000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2321000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2416000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3127000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2719000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2708000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>3078000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3276000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3419000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>3108000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2976000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2509000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2539000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>3397000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2868000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2463000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1576000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1072000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>2046000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1726000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>3934000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>3210000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>3305000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>2821000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3021000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>3552000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>2167000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2645000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>3373000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
         <v>91000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>125000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>182000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>52000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>226000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>74000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>24000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>256000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2960000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>184000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>1530000000</v>
+      </c>
+      <c r="C10">
         <v>3756000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3544000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4656000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5025000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6842000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6840000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8337000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5541000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4299000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1291000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1348000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2321000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2416000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3127000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2719000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2708000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3078000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3276000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3419000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3108000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2976000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2509000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>2539000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3397000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2868000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2463000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1576000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1072000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>2046000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1726000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3934000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>3210000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3305000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2821000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>3021000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>3552000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2167000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2645000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>3373000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>204000000</v>
+      </c>
+      <c r="C11">
         <v>687000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>617000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>717000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1090000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1464000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1354000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1501000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1035000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>932000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>918000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>135000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>404000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>539000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>706000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>468000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>170000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>554000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>711000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>587000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5036000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>848000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>678000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>284000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1050000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>774000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>641000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>441000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>307000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>620000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>678000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1090000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1044000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1064000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>784000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>988000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1220000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>650000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>714000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1113000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1326000000</v>
+      </c>
+      <c r="C12">
         <v>3069000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2927000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3939000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3935000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5378000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5486000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6836000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4506000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3367000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>373000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1213000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1917000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1877000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2421000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2251000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2538000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2524000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2565000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2832000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-1928000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2128000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1831000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2255000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2347000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2094000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1822000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1135000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>765000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1426000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1048000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2844000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2166000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2241000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2037000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2033000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2332000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1517000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1931000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2260000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>141000000</v>
+      </c>
+      <c r="C13">
         <v>107000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>141000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>108000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>126000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>94000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>139000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>125000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>144000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>134000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>176000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>90000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>193000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>84000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>223000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>69000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>216000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>71000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>217000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>95000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>215000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>93000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>200000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>93000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>194000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-6000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>188000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-65000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>191000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>96000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>132000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>96000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>134000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>98000000</v>
-      </c>
-      <c r="AI13">
-        <v>84000000</v>
       </c>
       <c r="AJ13">
         <v>84000000</v>
@@ -1951,628 +2095,643 @@
         <v>84000000</v>
       </c>
       <c r="AL13">
+        <v>84000000</v>
+      </c>
+      <c r="AM13">
         <v>88000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>70000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>72000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1185000000</v>
+      </c>
+      <c r="C14">
         <v>2962000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2786000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3831000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3809000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5284000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5347000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6711000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4362000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3233000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>197000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1123000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1724000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1793000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2198000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2182000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2322000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2453000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2348000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2737000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-2143000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2035000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1631000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2162000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2153000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2100000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1634000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1200000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>574000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1330000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>916000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2748000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2032000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2143000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1953000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1949000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2248000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1429000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1861000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2188000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3.32</v>
+      </c>
+      <c r="C15">
         <v>8.35</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>7.81</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>10.87</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10.96</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>15.14</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>15.22</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>18.8</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>12.23</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>9.77</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6.29</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3.12</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4.74</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4.83</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5.86</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>5.73</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6.11</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>6.35</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>6.04</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>7.02</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-5.51</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>5.09</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>4</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>5.23</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>5.17</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>4.96</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3.77</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2.71</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.28</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2.95</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2.01</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>6.05</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>4.5</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>4.69</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>4.21</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>4.15</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>4.8</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>3.07</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>3.92</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>4.53</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>8.25</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>7.73</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10.76</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10.81</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>14.93</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15.02</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>18.6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>12.08</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9.68</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6.26</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3.11</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4.69</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4.79</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>5.81</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>5.71</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>6.04</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>6.28</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>5.98</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>6.95</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-5.51</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>5.02</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3.95</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>5.15</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>5.08</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>4.88</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3.72</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>2.68</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.27</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2.9</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1.98</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>5.94</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>4.38</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>4.57</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>4.1</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>4.02</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>4.6</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>2.88</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3.7</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>4.29</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>349500000</v>
+      </c>
+      <c r="C17">
         <v>352800000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>355000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>351200000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>350500000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>348300000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>350800000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>356600000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>356400000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>355900000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>355700000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>358000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>371600000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>370000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>374500000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>379800000</v>
-      </c>
-      <c r="Q17">
-        <v>385400000</v>
       </c>
       <c r="R17">
         <v>385400000</v>
       </c>
       <c r="S17">
+        <v>385400000</v>
+      </c>
+      <c r="T17">
         <v>387800000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>389100000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>401600000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>398200000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>406100000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>412500000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>427400000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>422400000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>431900000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>440800000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>448900000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>449000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>451400000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>453300000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>458900000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>455500000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>461700000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>468600000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>471300000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>463400000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>473200000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>482100000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>356700000</v>
+      </c>
+      <c r="C18">
         <v>359200000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>360500000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>355900000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>355800000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>353900000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>356000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>360900000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>360300000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>359900000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>355700000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>361100000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>375500000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>374300000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>378000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>382400000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>390200000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>390500000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>392600000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>393800000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>409100000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>405700000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>413300000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>420100000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>435100000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>430200000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>439200000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>447400000</v>
-      </c>
-      <c r="AC18">
-        <v>458600000</v>
       </c>
       <c r="AD18">
         <v>458600000</v>
       </c>
       <c r="AE18">
+        <v>458600000</v>
+      </c>
+      <c r="AF18">
         <v>461600000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>462900000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>473200000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>469200000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>475900000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>484600000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>499600000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>496400000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>503500000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>509800000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2611,1792 +2770,1831 @@
         <v>1</v>
       </c>
       <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>0.8975</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.913</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.9135</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.919</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.9157</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.9163</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.9137999999999999</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.9146</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.906</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.9137999999999999</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.893</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.925</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9212</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.891</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.9139</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.9031</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.9287</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.9399</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.913</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.9256</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.9328</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.9362</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.9324</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.9147999999999999</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.9288</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.9444</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.1444</v>
+      </c>
+      <c r="C20">
         <v>0.3137</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2987</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.36</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3976</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.5028</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.4445</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.4709</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.4719</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.3988</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.09710000000000001</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.1542</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2331</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2903</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.3305</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.3087</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.3351</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.349</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.34</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.3392</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.366</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3574</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.3181</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.3163</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.4067</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.3511</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.3105</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.2487</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.1474</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.2982</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.1903</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.3705</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.4175</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.3941</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3092</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.3239</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.4045</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.3224</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.3071</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.3343</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1444</v>
+      </c>
+      <c r="C21">
         <v>0.3137</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2987</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.36</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.3976</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.5028</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4445</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4709</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.4719</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3988</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.09710000000000001</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1542</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2331</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2903</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.3305</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.3087</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.3351</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.349</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.34</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3392</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.366</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3574</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3181</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3163</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.4067</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3511</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.3105</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2487</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1474</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2982</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1903</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3705</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.4175</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3941</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.3092</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.3239</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.4045</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3224</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3071</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.3343</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1119</v>
+      </c>
+      <c r="C22">
         <v>0.2473</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2348</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2962</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.3014</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.3883</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.3475</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3791</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.3715</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2999</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0148</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1284</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1732</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2154</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2323</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2478</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2874</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2781</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2437</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2715</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-0.2524</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2444</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2068</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2694</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2578</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2571</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.206</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1893</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.0789</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1938</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.101</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2588</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2643</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2555</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.214</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2089</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.256</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2126</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2161</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2168</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>4422000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4114000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5148000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5513000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>7351000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7360000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>8835000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>6039000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4767000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1790000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1785000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2785000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2889000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3526000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3087000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3085000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3395000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3611000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3718000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3458000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>3256000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2774000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2796000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>3664000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>3115000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2708000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1815000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1357000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2268000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1991000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4153000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>3562000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>3606000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>3115000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>3411000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>4026000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2447000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2911000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3675000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1530000000</v>
+      </c>
+      <c r="C24">
         <v>3756000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3544000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>4656000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5025000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>6842000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6840000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>8337000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5541000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4299000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1291000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1348000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2321000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2416000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>3127000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2719000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2708000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3078000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>3276000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>3419000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>3108000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2976000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>2509000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>2539000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3397000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>2868000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>2463000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1576000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1072000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>2046000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1726000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>3934000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>3210000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>3305000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2821000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>3021000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>3552000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>2167000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>2645000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>3373000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1326000000</v>
+      </c>
+      <c r="C25">
         <v>3069000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2927000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>3939000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3935000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>5378000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5486000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6836000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4506000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3367000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>373000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1213000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1917000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1877000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2421000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2251000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2538000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2524000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2565000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2832000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-1928000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2128000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1831000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2255000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>2347000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>2094000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1822000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1135000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>765000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1426000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1048000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2844000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2166000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>2241000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>2037000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>2033000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>2332000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1517000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1931000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>2260000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1326000000</v>
+      </c>
+      <c r="C26">
         <v>3069000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2927000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3939000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3935000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>5378000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5486000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6836000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4506000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>3367000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>373000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1213000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1917000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1877000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2421000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2251000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2538000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2524000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2565000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2832000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-1928000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2128000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1831000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2255000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>2347000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2094000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1822000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1135000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>765000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1426000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1048000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2844000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2166000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>2241000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>2037000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>2033000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2332000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1517000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1931000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2260000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3.794</v>
+      </c>
+      <c r="C27">
         <v>8.699</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>8.245100000000001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>11.2158</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>11.4769</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>15.4407</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>15.6385</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>19.1699</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>12.643</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>9.4605</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.0486</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3.3883</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5.3182</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5.073</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>6.4646</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5.9268</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>6.6964</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>6.549</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>6.6142</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>7.2783</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-4.6471</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>5.344</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>4.5087</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>5.4667</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>5.5585</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>4.9574</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>4.2186</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>2.5749</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.7793</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>3.1759</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>2.3217</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>6.274</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>4.8022</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>4.9199</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>4.412</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>4.3385</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>5.017</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>3.2736</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>4.0807</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>4.6878</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>3.7174</v>
+      </c>
+      <c r="C28">
         <v>8.544</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>8.119300000000001</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>11.0677</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>11.2586</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>15.1964</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>15.4101</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>18.9415</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>12.4899</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>9.355399999999999</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.0486</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3.3592</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>5.24</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>5.0147</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>6.4048</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5.8865</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>6.6159</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>6.4635</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>6.5334</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>7.1915</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-4.5666</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>5.2453</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>4.4302</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>5.3678</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>5.4502</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>4.8675</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>4.1485</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2.5369</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.7406</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>3.1095</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2.2704</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>6.1439</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>4.6625</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>4.7762</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>4.2803</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>4.1952</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>4.7686</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>3.056</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>3.8352</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>4.4331</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>3.794</v>
+      </c>
+      <c r="C29">
         <v>8.699</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8.245100000000001</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>11.2158</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>11.4769</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>15.4407</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>15.6385</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>19.1699</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>12.643</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>9.4605</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.0486</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3.3883</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>5.3182</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>5.073</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>6.4646</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>5.9268</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>6.6964</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>6.549</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>6.6142</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>7.2783</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-4.6471</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>5.344</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>4.5087</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>5.4667</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>5.5585</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>4.9574</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>4.2186</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2.5749</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.7793</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>3.1759</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>2.3217</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>6.274</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>4.8022</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>4.9199</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>4.412</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>4.3385</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>5.017</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>3.2736</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>4.0807</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>4.6878</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>3.7174</v>
+      </c>
+      <c r="C30">
         <v>8.544</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8.119300000000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>11.0677</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>11.2586</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>15.1964</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>15.4101</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>18.9415</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>12.4899</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>9.355399999999999</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.0486</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>3.3592</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>5.24</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>5.0147</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>6.4048</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>5.8865</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>6.6159</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>6.4635</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>6.5334</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>7.1915</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-4.5666</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>5.2453</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>4.4302</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>5.3678</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>5.4502</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>4.8675</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>4.1485</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2.5369</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.7406</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>3.1095</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>2.2704</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>6.1439</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>4.6625</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>4.7762</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>4.2803</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>4.1952</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>4.7686</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>3.056</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3.8352</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>4.4331</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>359200000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>360500000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>355900000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>352300000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>353900000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>356000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>360900000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>361000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>359900000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>359100000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>361100000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>367300000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>374300000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>378000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>382400000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>384300000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>390500000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>392600000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>393800000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>389800000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>405700000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>413300000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>420100000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>423500000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>430200000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>439200000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>447400000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>451900000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>458600000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>461600000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>462900000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>463400000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>469200000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>475900000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>484600000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>488700000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>496400000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>503500000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>509800000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0.3693</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.3468</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.3981</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.4362</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.5402</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.4783</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.499</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.5144</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.4422</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.1346</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.2042</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.2798</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.3471</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.3727</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.3505</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.3818</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.3849</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.3747</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.3688</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.4073</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.3911</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.3517</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.3484</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.4387</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.3814</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.3414</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.2864</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.1866</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.3306</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.2195</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.3912</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.4633</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.43</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.3414</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.3657</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.4584</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.364</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.338</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.3642</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>2.5266</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>2.416</v>
+        <v>0.6833</v>
       </c>
       <c r="D33">
-        <v>0.194</v>
+        <v>3.2429</v>
       </c>
       <c r="E33">
-        <v>0.9199000000000001</v>
+        <v>-1.7747</v>
       </c>
       <c r="F33">
-        <v>-1.3112</v>
+        <v>1.9699</v>
       </c>
       <c r="G33">
+        <v>-2.8851</v>
+      </c>
+      <c r="H33">
         <v>1.3301</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.2928</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1.3639</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>3.2405</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-0.876</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-6.0655</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>5.0056</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1.1743</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.9123</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-5.0378</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1.7629</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-0.6025</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.8923</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-0.0956</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-1.0723</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.3258</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-1.3577</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-0.4223</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.4225</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-0.5604</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>1.2713</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-0.4011</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>1.2808</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.1851</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-0.8645</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.6345</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.606</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-1.061</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.058</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-0.4525</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.2596</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-0.5014999999999999</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1.3158</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-0.5647</v>
       </c>
     </row>
